--- a/Analyzed/try6/data_2007.xlsx
+++ b/Analyzed/try6/data_2007.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC9"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -503,6 +503,11 @@
           <t>CZcomb</t>
         </is>
       </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>XZcomb</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -547,13 +552,13 @@
         <v>56.04348828398085</v>
       </c>
       <c r="N2">
-        <v>172.4520000000001</v>
+        <v>500.64</v>
       </c>
       <c r="O2">
-        <v>859.1</v>
+        <v>-90.90000000000001</v>
       </c>
       <c r="P2">
-        <v>505.2053376</v>
+        <v>431.9234426331605</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -571,27 +576,30 @@
         <v>7</v>
       </c>
       <c r="V2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
         <v>0</v>
       </c>
     </row>
@@ -638,13 +646,13 @@
         <v>56.25010315440444</v>
       </c>
       <c r="N3">
-        <v>193.648</v>
+        <v>433.72</v>
       </c>
       <c r="O3">
-        <v>912.65</v>
+        <v>-87.34999999999999</v>
       </c>
       <c r="P3">
-        <v>501.7132223999999</v>
+        <v>439.8049431384213</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -662,28 +670,31 @@
         <v>4</v>
       </c>
       <c r="V3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC3">
         <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -729,13 +740,13 @@
         <v>57.30119547467994</v>
       </c>
       <c r="N4">
-        <v>221.396</v>
+        <v>502.264</v>
       </c>
       <c r="O4">
-        <v>959.37</v>
+        <v>-90.63</v>
       </c>
       <c r="P4">
-        <v>461.394252</v>
+        <v>387.6113897478447</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -753,7 +764,7 @@
         <v>1</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W4">
         <v>1</v>
@@ -762,19 +773,22 @@
         <v>1</v>
       </c>
       <c r="Y4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -820,13 +834,13 @@
         <v>56.16038170021862</v>
       </c>
       <c r="N5">
-        <v>247.156</v>
+        <v>494.3120000000001</v>
       </c>
       <c r="O5">
-        <v>878.74</v>
+        <v>-71.26000000000001</v>
       </c>
       <c r="P5">
-        <v>459.342144</v>
+        <v>372.6724183202152</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -844,7 +858,7 @@
         <v>3</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>3</v>
@@ -853,19 +867,22 @@
         <v>1</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5">
         <v>0</v>
       </c>
       <c r="AC5">
         <v>3</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -911,13 +928,13 @@
         <v>56.3245048583132</v>
       </c>
       <c r="N6">
-        <v>52.44399999999997</v>
+        <v>389.648</v>
       </c>
       <c r="O6">
-        <v>946.17</v>
+        <v>-153.83</v>
       </c>
       <c r="P6">
-        <v>458.552988</v>
+        <v>366.1829006555844</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -938,7 +955,7 @@
         <v>3</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X6">
         <v>1</v>
@@ -950,13 +967,16 @@
         <v>3</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6">
         <v>3</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1002,13 +1022,13 @@
         <v>59.65501073253106</v>
       </c>
       <c r="N7">
-        <v>96.85199999999999</v>
+        <v>398.104</v>
       </c>
       <c r="O7">
-        <v>1006.34</v>
+        <v>-143.66</v>
       </c>
       <c r="P7">
-        <v>483.949836</v>
+        <v>405.2533518543653</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -1029,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="W7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X7">
         <v>3</v>
@@ -1048,6 +1068,9 @@
       </c>
       <c r="AC7">
         <v>3</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1093,13 +1116,13 @@
         <v>69.24301329366352</v>
       </c>
       <c r="N8">
-        <v>250.04</v>
+        <v>500.08</v>
       </c>
       <c r="O8">
-        <v>1010.7</v>
+        <v>-89.3</v>
       </c>
       <c r="P8">
-        <v>440.8579872</v>
+        <v>352.5082070535904</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -1117,16 +1140,16 @@
         <v>6</v>
       </c>
       <c r="V8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z8">
         <v>5</v>
@@ -1135,10 +1158,13 @@
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC8">
         <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1184,13 +1210,13 @@
         <v>67.64127457330621</v>
       </c>
       <c r="N9">
-        <v>185.612</v>
+        <v>426.888</v>
       </c>
       <c r="O9">
-        <v>1114.62</v>
+        <v>-135.38</v>
       </c>
       <c r="P9">
-        <v>360.9994824</v>
+        <v>256.1486247166592</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -1208,10 +1234,10 @@
         <v>6</v>
       </c>
       <c r="V9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -1229,6 +1255,9 @@
         <v>2</v>
       </c>
       <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
         <v>0</v>
       </c>
     </row>
